--- a/para/Cap/Elco.xlsx
+++ b/para/Cap/Elco.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/02_Herts/03_VRF/23_PE/05_PWM_Losses/para/Cap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Cap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CEC77F1-42F6-43D4-A1DA-5AB3751B8DAA}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{493E37D0-E209-468B-A54A-52EB0E72BA21}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,7 +851,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20,00</c:v>
+                  <c:v>20.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -956,7 +956,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>105,00</c:v>
+                  <c:v>105.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1061,7 +1061,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1154,7 +1154,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1247,7 +1247,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1340,7 +1340,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1433,7 +1433,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1532,7 +1532,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1631,7 +1631,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1730,7 +1730,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2233,7 +2233,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20,00</c:v>
+                  <c:v>20.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2338,7 +2338,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>105,00</c:v>
+                  <c:v>105.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2443,7 +2443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2536,7 +2536,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2629,7 +2629,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2722,7 +2722,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2815,7 +2815,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2914,7 +2914,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3013,7 +3013,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3112,7 +3112,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3615,7 +3615,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20,00</c:v>
+                  <c:v>20.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3720,7 +3720,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>105,00</c:v>
+                  <c:v>105.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3825,7 +3825,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3918,7 +3918,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4011,7 +4011,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4104,7 +4104,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4197,7 +4197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4296,7 +4296,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4395,7 +4395,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4494,7 +4494,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4997,7 +4997,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20,00</c:v>
+                  <c:v>20.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5102,7 +5102,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>105,00</c:v>
+                  <c:v>105.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5207,7 +5207,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5300,7 +5300,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5393,7 +5393,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5486,7 +5486,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5579,7 +5579,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5678,7 +5678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5777,7 +5777,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5876,7 +5876,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,00</c:v>
+                  <c:v>0.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10987,10 +10987,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11376,7 +11372,7 @@
   <dimension ref="A1:P109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11472,7 +11468,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>

--- a/para/Cap/Elco.xlsx
+++ b/para/Cap/Elco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Cap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{493E37D0-E209-468B-A54A-52EB0E72BA21}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5740DB46-A7E6-4FD6-8E50-9C132AA40AEF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1248" yWindow="2844" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -717,15 +717,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -10987,6 +10978,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11263,7 +11258,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>80</v>
       </c>
       <c r="B1" t="s">
@@ -11271,34 +11266,34 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="32">
         <v>45018</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
@@ -11306,7 +11301,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
         <v>86</v>
       </c>
       <c r="B9" t="s">
@@ -11314,7 +11309,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
         <v>87</v>
       </c>
       <c r="B10" t="s">
@@ -11322,7 +11317,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>88</v>
       </c>
       <c r="B11" t="s">
@@ -11330,7 +11325,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B12">
@@ -11341,7 +11336,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="31" t="s">
         <v>91</v>
       </c>
       <c r="B13">
@@ -11352,7 +11347,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="31" t="s">
         <v>93</v>
       </c>
       <c r="B14">
@@ -11372,7 +11367,7 @@
   <dimension ref="A1:P109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11431,7 +11426,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
@@ -11458,7 +11453,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
@@ -11485,7 +11480,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
@@ -11512,7 +11507,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C5" t="s">
@@ -11539,7 +11534,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
@@ -11566,7 +11561,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C7" t="s">
@@ -11593,7 +11588,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="35" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="s">
@@ -11624,7 +11619,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="35" t="s">
         <v>52</v>
       </c>
       <c r="C9" t="s">
@@ -11651,7 +11646,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="s">
@@ -11686,7 +11681,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
@@ -11938,36 +11933,36 @@
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="44"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="41"/>
     </row>
     <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
@@ -12190,36 +12185,36 @@
     </row>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="41"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="44"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="41"/>
     </row>
     <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="24"/>
@@ -12442,36 +12437,36 @@
     </row>
     <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="41"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="38"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="33"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="41"/>
     </row>
     <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="24"/>
@@ -12694,36 +12689,36 @@
     </row>
     <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="41"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="38"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="33"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="41"/>
     </row>
     <row r="92" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="24"/>
@@ -12965,13 +12960,15 @@
       <c r="C109" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B91:K91"/>
     <mergeCell ref="A90:K90"/>
     <mergeCell ref="A30:K30"/>
     <mergeCell ref="B31:K31"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="B51:K51"/>
     <mergeCell ref="A70:K70"/>
+    <mergeCell ref="B71:K71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13044,7 +13041,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
@@ -13084,7 +13081,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -13124,7 +13121,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
@@ -13158,7 +13155,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B5" t="s">
